--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H100_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5535168195718655</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.552870090634441</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9890710382513661</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01351351351351351</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.552870090634441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7098039215686275</v>
+        <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4894259818731118</v>
+        <v>0.486404833836858</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07405075614759583</v>
+        <v>0.0743905276151163</v>
       </c>
       <c r="J2" t="n">
-        <v>978.56004466705</v>
+        <v>914.6374087948313</v>
       </c>
       <c r="K2" t="n">
-        <v>1353224.563398502</v>
+        <v>993495.1447021598</v>
       </c>
       <c r="L2" t="n">
-        <v>1163.281807387403</v>
+        <v>996.7422659354622</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7470235840649102</v>
+        <v>0.8142726286873843</v>
       </c>
     </row>
   </sheetData>
